--- a/Data/New RA abundance bar chart.xlsx
+++ b/Data/New RA abundance bar chart.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Predeliction</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Tail</t>
+  </si>
+  <si>
+    <t>A. cohaerens</t>
+  </si>
+  <si>
+    <t>H. leachi</t>
   </si>
 </sst>
 </file>
@@ -702,8 +708,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,7 +1131,7 @@
                   <c:v>A. variegatum</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>A. coharenses</c:v>
+                  <c:v>A. cohaerens</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>R. annulatus</c:v>
@@ -1134,7 +1143,7 @@
                   <c:v>R. geigyi</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>H.laechi</c:v>
+                  <c:v>H. leachi</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>R. lunulatus</c:v>
@@ -1304,7 +1313,7 @@
                   <c:v>A. variegatum</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>A. coharenses</c:v>
+                  <c:v>A. cohaerens</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>R. annulatus</c:v>
@@ -1316,7 +1325,7 @@
                   <c:v>R. geigyi</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>H.laechi</c:v>
+                  <c:v>H. leachi</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>R. lunulatus</c:v>
@@ -1506,7 +1515,7 @@
                   <c:v>A. variegatum</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>A. coharenses</c:v>
+                  <c:v>A. cohaerens</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>R. annulatus</c:v>
@@ -1518,7 +1527,7 @@
                   <c:v>R. geigyi</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>H.laechi</c:v>
+                  <c:v>H. leachi</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>R. lunulatus</c:v>
@@ -1700,7 +1709,7 @@
                   <c:v>A. variegatum</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>A. coharenses</c:v>
+                  <c:v>A. cohaerens</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>R. annulatus</c:v>
@@ -1712,7 +1721,7 @@
                   <c:v>R. geigyi</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>H.laechi</c:v>
+                  <c:v>H. leachi</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>R. lunulatus</c:v>
@@ -1907,7 +1916,7 @@
                   <c:v>A. variegatum</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>A. coharenses</c:v>
+                  <c:v>A. cohaerens</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>R. annulatus</c:v>
@@ -1919,7 +1928,7 @@
                   <c:v>R. geigyi</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>H.laechi</c:v>
+                  <c:v>H. leachi</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>R. lunulatus</c:v>
@@ -2092,7 +2101,7 @@
                   <c:v>A. variegatum</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>A. coharenses</c:v>
+                  <c:v>A. cohaerens</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>R. annulatus</c:v>
@@ -2104,7 +2113,7 @@
                   <c:v>R. geigyi</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>H.laechi</c:v>
+                  <c:v>H. leachi</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>R. lunulatus</c:v>
@@ -3380,8 +3389,8 @@
   <sheetPr/>
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" zoomScaleSheetLayoutView="60" topLeftCell="K10" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" zoomScaleSheetLayoutView="60" topLeftCell="L10" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -3494,7 +3503,8 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R2">
@@ -3559,8 +3569,9 @@
       <c r="N3">
         <v>1</v>
       </c>
-      <c r="Q3" t="s">
-        <v>2</v>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -3624,7 +3635,8 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R4">
@@ -3689,7 +3701,8 @@
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R5">
@@ -3754,7 +3767,8 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R6">
@@ -3819,8 +3833,9 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="Q7" t="s">
-        <v>6</v>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -3841,8 +3856,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="17:23">
-      <c r="Q8" t="s">
+    <row r="8" spans="16:23">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="R8">
@@ -3864,8 +3880,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="17:23">
-      <c r="Q9" t="s">
+    <row r="9" spans="16:23">
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="R9">
@@ -3887,8 +3904,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="17:23">
-      <c r="Q10" t="s">
+    <row r="10" spans="16:23">
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R10">
@@ -3910,8 +3928,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="17:23">
-      <c r="Q11" t="s">
+    <row r="11" spans="16:23">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="R11">
@@ -3933,8 +3952,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="17:23">
-      <c r="Q12" t="s">
+    <row r="12" spans="16:23">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="R12">
@@ -3956,8 +3976,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="17:23">
-      <c r="Q13" t="s">
+    <row r="13" spans="16:23">
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="R13">
@@ -3979,8 +4000,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="17:23">
-      <c r="Q14" t="s">
+    <row r="14" spans="16:23">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="R14">

--- a/Data/New RA abundance bar chart.xlsx
+++ b/Data/New RA abundance bar chart.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Predeliction</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>H. leachi</t>
+  </si>
+  <si>
+    <t>Amblyomma sp.</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1167,7 @@
                   <c:v>R. guilhoni</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>A. gemma</c:v>
+                  <c:v>Amblyomma sp.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1346,7 +1349,7 @@
                   <c:v>R. guilhoni</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>A. gemma</c:v>
+                  <c:v>Amblyomma sp.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1548,7 +1551,7 @@
                   <c:v>R. guilhoni</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>A. gemma</c:v>
+                  <c:v>Amblyomma sp.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1742,7 +1745,7 @@
                   <c:v>R. guilhoni</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>A. gemma</c:v>
+                  <c:v>Amblyomma sp.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1949,7 +1952,7 @@
                   <c:v>R. guilhoni</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>A. gemma</c:v>
+                  <c:v>Amblyomma sp.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2134,7 +2137,7 @@
                   <c:v>R. guilhoni</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>A. gemma</c:v>
+                  <c:v>Amblyomma sp.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3389,8 +3392,8 @@
   <sheetPr/>
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" zoomScaleSheetLayoutView="60" topLeftCell="L10" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P14"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" zoomScaleSheetLayoutView="60" topLeftCell="L12" workbookViewId="0">
+      <selection activeCell="AC26" sqref="AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -4003,7 +4006,7 @@
     <row r="14" spans="16:23">
       <c r="P14" s="1"/>
       <c r="Q14" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="R14">
         <v>0</v>

--- a/Data/New RA abundance bar chart.xlsx
+++ b/Data/New RA abundance bar chart.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9707"/>
+    <workbookView windowWidth="22188" windowHeight="9707" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="abundance" sheetId="1" r:id="rId1"/>
+    <sheet name="new abundance" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
   <si>
     <t>Predeliction</t>
   </si>
@@ -2543,7 +2544,1859 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0983914428023189"/>
+          <c:y val="0.0244574020084224"/>
+          <c:w val="0.803135461745734"/>
+          <c:h val="0.700518302559119"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new abundance'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Belly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="line">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'new abundance'!$C$2:$C$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('new abundance'!$C$2,'new abundance'!$C$4:$C$14)</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>A. variegatum</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R. annulatus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R. decoloratus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R. geigyi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>H. leachi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>R. lunulatus</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>R. muhsamae</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R. senegalensis</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rhipicephalus sp.</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>R. sanguineus</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>R. guilhoni</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amblyomma sp.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'new abundance'!$D$2:$D$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('new abundance'!$D$2,'new abundance'!$D$4:$D$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new abundance'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Head</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="line">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'new abundance'!$C$2:$C$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('new abundance'!$C$2,'new abundance'!$C$4:$C$14)</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>A. variegatum</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R. annulatus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R. decoloratus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R. geigyi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>H. leachi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>R. lunulatus</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>R. muhsamae</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R. senegalensis</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rhipicephalus sp.</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>R. sanguineus</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>R. guilhoni</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amblyomma sp.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'new abundance'!$E$2:$E$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('new abundance'!$E$2,'new abundance'!$E$4:$E$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new abundance'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Leg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="line">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'new abundance'!$C$2:$C$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('new abundance'!$C$2,'new abundance'!$C$4:$C$14)</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>A. variegatum</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R. annulatus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R. decoloratus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R. geigyi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>H. leachi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>R. lunulatus</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>R. muhsamae</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R. senegalensis</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rhipicephalus sp.</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>R. sanguineus</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>R. guilhoni</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amblyomma sp.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'new abundance'!$F$2:$F$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('new abundance'!$F$2,'new abundance'!$F$4:$F$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new abundance'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neck</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="line">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="line">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'new abundance'!$C$2:$C$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('new abundance'!$C$2,'new abundance'!$C$4:$C$14)</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>A. variegatum</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R. annulatus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R. decoloratus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R. geigyi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>H. leachi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>R. lunulatus</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>R. muhsamae</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R. senegalensis</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rhipicephalus sp.</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>R. sanguineus</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>R. guilhoni</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amblyomma sp.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'new abundance'!$G$2:$G$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('new abundance'!$G$2,'new abundance'!$G$4:$G$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new abundance'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shoulder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="line">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="line">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="line">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'new abundance'!$C$2:$C$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('new abundance'!$C$2,'new abundance'!$C$4:$C$14)</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>A. variegatum</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R. annulatus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R. decoloratus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R. geigyi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>H. leachi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>R. lunulatus</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>R. muhsamae</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R. senegalensis</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rhipicephalus sp.</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>R. sanguineus</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>R. guilhoni</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amblyomma sp.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'new abundance'!$H$2:$H$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('new abundance'!$H$2,'new abundance'!$H$4:$H$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new abundance'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="line">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'new abundance'!$C$2:$C$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('new abundance'!$C$2,'new abundance'!$C$4:$C$14)</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>A. variegatum</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R. annulatus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R. decoloratus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R. geigyi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>H. leachi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>R. lunulatus</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>R. muhsamae</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R. senegalensis</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rhipicephalus sp.</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>R. sanguineus</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>R. guilhoni</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Amblyomma sp.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'new abundance'!$I$2:$I$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('new abundance'!$I$2,'new abundance'!$I$4:$I$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="563626163"/>
+        <c:axId val="540300687"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="563626163"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540300687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540300687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1000" b="1"/>
+                  <a:t>Abundance</a:t>
+                </a:r>
+                <a:endParaRPr sz="1000" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563626163"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{7a8fcb94-1930-43b2-8971-c14808547867}"/>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="1000"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3097,6 +4950,520 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10019">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3120,6 +5487,41 @@
       <xdr:xfrm>
         <a:off x="9117965" y="3013075"/>
         <a:ext cx="7744460" cy="3914140"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>86995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>160655</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="3013075"/>
+        <a:ext cx="7261225" cy="3914140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3392,8 +5794,8 @@
   <sheetPr/>
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" zoomScaleSheetLayoutView="60" topLeftCell="L12" workbookViewId="0">
-      <selection activeCell="AC26" sqref="AC26"/>
+    <sheetView zoomScale="104" zoomScaleNormal="104" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -4024,6 +6426,339 @@
         <v>0</v>
       </c>
       <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="3:9">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>213</v>
+      </c>
+      <c r="E4">
+        <v>133</v>
+      </c>
+      <c r="F4">
+        <v>175</v>
+      </c>
+      <c r="G4">
+        <v>118</v>
+      </c>
+      <c r="H4">
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>131</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>140</v>
+      </c>
+      <c r="G5">
+        <v>73</v>
+      </c>
+      <c r="H5">
+        <v>44</v>
+      </c>
+      <c r="I5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+      <c r="E6">
+        <v>74</v>
+      </c>
+      <c r="F6">
+        <v>80</v>
+      </c>
+      <c r="G6">
+        <v>77</v>
+      </c>
+      <c r="H6">
+        <v>28</v>
+      </c>
+      <c r="I6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>0</v>
       </c>
     </row>

--- a/Data/New RA abundance bar chart.xlsx
+++ b/Data/New RA abundance bar chart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9707" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9707" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="abundance" sheetId="1" r:id="rId1"/>
@@ -2610,7 +2610,11 @@
               <c:delete val="1"/>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
               <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
@@ -2632,14 +2636,6 @@
                   </c15:spPr>
                 </c:ext>
               </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:delete val="1"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
@@ -2839,30 +2835,6 @@
               <c:idx val="8"/>
               <c:delete val="1"/>
             </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:layout/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="line">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                  </c15:spPr>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3052,30 +3024,6 @@
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="line">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                  </c15:spPr>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
@@ -3292,56 +3240,8 @@
               <c:delete val="1"/>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="line">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                  </c15:spPr>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
               <c:idx val="8"/>
               <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:layout/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="line">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                  </c15:spPr>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
@@ -3538,56 +3438,8 @@
               <c:delete val="1"/>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="line">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                  </c15:spPr>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="line">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                  </c15:spPr>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
@@ -3604,30 +3456,6 @@
             <c:dLbl>
               <c:idx val="9"/>
               <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:layout/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="line">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                  </c15:spPr>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
@@ -3821,30 +3649,6 @@
             <c:dLbl>
               <c:idx val="9"/>
               <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:layout/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="line">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                  </c15:spPr>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
@@ -5464,6 +5268,13 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6441,8 +6252,8 @@
   <sheetPr/>
   <dimension ref="B1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" zoomScaleSheetLayoutView="60" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
